--- a/Status/FairyGrowthStatus.xlsx
+++ b/Status/FairyGrowthStatus.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -617,9 +617,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
